--- a/experiment/linear/ex9_1_2/compare/Alpha-Zero/ex9_1_2_Alpha-Zero.xlsx
+++ b/experiment/linear/ex9_1_2/compare/Alpha-Zero/ex9_1_2_Alpha-Zero.xlsx
@@ -482,13 +482,13 @@
         <v>0.0</v>
       </c>
       <c r="E2">
-        <v>0.00017271</v>
+        <v>0.000276595</v>
       </c>
       <c r="F2">
-        <v>0.01530342</v>
+        <v>0.024906306</v>
       </c>
       <c r="G2">
-        <v>0.00032838939</v>
+        <v>0.0005095908938271605</v>
       </c>
       <c r="H2">
         <v>1640</v>
@@ -517,13 +517,13 @@
         <v>0.0</v>
       </c>
       <c r="E3">
-        <v>0.00186759</v>
+        <v>0.003133295</v>
       </c>
       <c r="F3">
-        <v>0.00722799</v>
+        <v>0.00788709</v>
       </c>
       <c r="G3">
-        <v>0.002343836661971831</v>
+        <v>0.0036491232397660818</v>
       </c>
       <c r="H3">
         <v>2068</v>
@@ -552,13 +552,13 @@
         <v>0.0</v>
       </c>
       <c r="E4">
-        <v>0.00797085</v>
+        <v>0.010541989</v>
       </c>
       <c r="F4">
-        <v>0.01394361</v>
+        <v>0.016729955</v>
       </c>
       <c r="G4">
-        <v>0.009106375901639345</v>
+        <v>0.012145625483009709</v>
       </c>
       <c r="H4">
         <v>9732</v>
